--- a/all_stock_data.xlsx
+++ b/all_stock_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,26 +484,26 @@
         <v>45231</v>
       </c>
       <c r="B2" t="n">
-        <v>171</v>
+        <v>25.67000007629395</v>
       </c>
       <c r="C2" t="n">
-        <v>174.2299957275391</v>
+        <v>25.78000068664551</v>
       </c>
       <c r="D2" t="n">
-        <v>170.1199951171875</v>
+        <v>24.27499961853027</v>
       </c>
       <c r="E2" t="n">
-        <v>173.9700012207031</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="F2" t="n">
-        <v>173.7411041259766</v>
+        <v>25.03000068664551</v>
       </c>
       <c r="G2" t="n">
-        <v>56934900</v>
+        <v>6202100</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -512,26 +512,26 @@
         <v>45232</v>
       </c>
       <c r="B3" t="n">
-        <v>175.5200042724609</v>
+        <v>25.5</v>
       </c>
       <c r="C3" t="n">
-        <v>177.7799987792969</v>
+        <v>26.14200019836426</v>
       </c>
       <c r="D3" t="n">
-        <v>175.4600067138672</v>
+        <v>25.29500007629395</v>
       </c>
       <c r="E3" t="n">
-        <v>177.5700073242188</v>
+        <v>26.06999969482422</v>
       </c>
       <c r="F3" t="n">
-        <v>177.3363800048828</v>
+        <v>26.06999969482422</v>
       </c>
       <c r="G3" t="n">
-        <v>77334800</v>
+        <v>5825300</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -540,26 +540,26 @@
         <v>45233</v>
       </c>
       <c r="B4" t="n">
-        <v>174.2400054931641</v>
+        <v>26.5</v>
       </c>
       <c r="C4" t="n">
-        <v>176.8200073242188</v>
+        <v>27.0049991607666</v>
       </c>
       <c r="D4" t="n">
-        <v>173.3500061035156</v>
+        <v>26.13999938964844</v>
       </c>
       <c r="E4" t="n">
-        <v>176.6499938964844</v>
+        <v>26.53000068664551</v>
       </c>
       <c r="F4" t="n">
-        <v>176.4175720214844</v>
+        <v>26.53000068664551</v>
       </c>
       <c r="G4" t="n">
-        <v>79763700</v>
+        <v>5478000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -568,26 +568,26 @@
         <v>45236</v>
       </c>
       <c r="B5" t="n">
-        <v>176.3800048828125</v>
+        <v>26.70999908447266</v>
       </c>
       <c r="C5" t="n">
-        <v>179.4299926757812</v>
+        <v>26.72999954223633</v>
       </c>
       <c r="D5" t="n">
-        <v>176.2100067138672</v>
+        <v>25.76000022888184</v>
       </c>
       <c r="E5" t="n">
-        <v>179.2299957275391</v>
+        <v>25.96999931335449</v>
       </c>
       <c r="F5" t="n">
-        <v>178.9941864013672</v>
+        <v>25.96999931335449</v>
       </c>
       <c r="G5" t="n">
-        <v>63841300</v>
+        <v>3869500</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -596,26 +596,26 @@
         <v>45237</v>
       </c>
       <c r="B6" t="n">
-        <v>179.1799926757812</v>
+        <v>25.21999931335449</v>
       </c>
       <c r="C6" t="n">
-        <v>182.4400024414062</v>
+        <v>25.59499931335449</v>
       </c>
       <c r="D6" t="n">
-        <v>178.9700012207031</v>
+        <v>24.81999969482422</v>
       </c>
       <c r="E6" t="n">
-        <v>181.8200073242188</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="F6" t="n">
-        <v>181.5807800292969</v>
+        <v>25.54000091552734</v>
       </c>
       <c r="G6" t="n">
-        <v>70530000</v>
+        <v>4852900</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -624,26 +624,26 @@
         <v>45238</v>
       </c>
       <c r="B7" t="n">
-        <v>182.3500061035156</v>
+        <v>25.1200008392334</v>
       </c>
       <c r="C7" t="n">
-        <v>183.4499969482422</v>
+        <v>25.65999984741211</v>
       </c>
       <c r="D7" t="n">
-        <v>181.5899963378906</v>
+        <v>24.96500015258789</v>
       </c>
       <c r="E7" t="n">
-        <v>182.8899993896484</v>
+        <v>25.53000068664551</v>
       </c>
       <c r="F7" t="n">
-        <v>182.6493682861328</v>
+        <v>25.53000068664551</v>
       </c>
       <c r="G7" t="n">
-        <v>49340300</v>
+        <v>3671400</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -652,26 +652,26 @@
         <v>45239</v>
       </c>
       <c r="B8" t="n">
-        <v>182.9600067138672</v>
+        <v>25.80999946594238</v>
       </c>
       <c r="C8" t="n">
-        <v>184.1199951171875</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="D8" t="n">
-        <v>181.8099975585938</v>
+        <v>24.40999984741211</v>
       </c>
       <c r="E8" t="n">
-        <v>182.4100036621094</v>
+        <v>24.57999992370605</v>
       </c>
       <c r="F8" t="n">
-        <v>182.1699981689453</v>
+        <v>24.57999992370605</v>
       </c>
       <c r="G8" t="n">
-        <v>53763500</v>
+        <v>4078500</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -680,26 +680,26 @@
         <v>45240</v>
       </c>
       <c r="B9" t="n">
-        <v>183.9700012207031</v>
+        <v>24.70000076293945</v>
       </c>
       <c r="C9" t="n">
-        <v>186.5700073242188</v>
+        <v>24.88999938964844</v>
       </c>
       <c r="D9" t="n">
-        <v>183.5299987792969</v>
+        <v>24.28000068664551</v>
       </c>
       <c r="E9" t="n">
-        <v>186.3999938964844</v>
+        <v>24.63999938964844</v>
       </c>
       <c r="F9" t="n">
-        <v>186.3999938964844</v>
+        <v>24.63999938964844</v>
       </c>
       <c r="G9" t="n">
-        <v>66133400</v>
+        <v>3039400</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -708,26 +708,26 @@
         <v>45243</v>
       </c>
       <c r="B10" t="n">
-        <v>185.8200073242188</v>
+        <v>24.48999977111816</v>
       </c>
       <c r="C10" t="n">
-        <v>186.0299987792969</v>
+        <v>25.02499961853027</v>
       </c>
       <c r="D10" t="n">
-        <v>184.2100067138672</v>
+        <v>24.29999923706055</v>
       </c>
       <c r="E10" t="n">
-        <v>184.8000030517578</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="F10" t="n">
-        <v>184.8000030517578</v>
+        <v>24.60000038146973</v>
       </c>
       <c r="G10" t="n">
-        <v>43627500</v>
+        <v>2839700</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -736,26 +736,26 @@
         <v>45244</v>
       </c>
       <c r="B11" t="n">
-        <v>187.6999969482422</v>
+        <v>25.44000053405762</v>
       </c>
       <c r="C11" t="n">
-        <v>188.1100006103516</v>
+        <v>26.56500053405762</v>
       </c>
       <c r="D11" t="n">
-        <v>186.3000030517578</v>
+        <v>25.36000061035156</v>
       </c>
       <c r="E11" t="n">
-        <v>187.4400024414062</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="F11" t="n">
-        <v>187.4400024414062</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="G11" t="n">
-        <v>60108400</v>
+        <v>5472100</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -764,26 +764,26 @@
         <v>45245</v>
       </c>
       <c r="B12" t="n">
-        <v>187.8500061035156</v>
+        <v>26.52000045776367</v>
       </c>
       <c r="C12" t="n">
-        <v>189.5</v>
+        <v>27.34000015258789</v>
       </c>
       <c r="D12" t="n">
-        <v>187.7799987792969</v>
+        <v>26.36000061035156</v>
       </c>
       <c r="E12" t="n">
-        <v>188.0099945068359</v>
+        <v>26.95000076293945</v>
       </c>
       <c r="F12" t="n">
-        <v>188.0099945068359</v>
+        <v>26.95000076293945</v>
       </c>
       <c r="G12" t="n">
-        <v>53790500</v>
+        <v>5857200</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -792,26 +792,26 @@
         <v>45246</v>
       </c>
       <c r="B13" t="n">
-        <v>189.5700073242188</v>
+        <v>26.60000038146973</v>
       </c>
       <c r="C13" t="n">
-        <v>190.9600067138672</v>
+        <v>26.98999977111816</v>
       </c>
       <c r="D13" t="n">
-        <v>188.6499938964844</v>
+        <v>25.94000053405762</v>
       </c>
       <c r="E13" t="n">
-        <v>189.7100067138672</v>
+        <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>189.7100067138672</v>
+        <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>54412900</v>
+        <v>4080300</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -820,26 +820,26 @@
         <v>45247</v>
       </c>
       <c r="B14" t="n">
-        <v>190.25</v>
+        <v>26.35000038146973</v>
       </c>
       <c r="C14" t="n">
-        <v>190.3800048828125</v>
+        <v>26.97800064086914</v>
       </c>
       <c r="D14" t="n">
-        <v>188.5700073242188</v>
+        <v>26.1200008392334</v>
       </c>
       <c r="E14" t="n">
-        <v>189.6900024414062</v>
+        <v>26.21999931335449</v>
       </c>
       <c r="F14" t="n">
-        <v>189.6900024414062</v>
+        <v>26.21999931335449</v>
       </c>
       <c r="G14" t="n">
-        <v>50922700</v>
+        <v>4988700</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -848,26 +848,26 @@
         <v>45250</v>
       </c>
       <c r="B15" t="n">
-        <v>189.8899993896484</v>
+        <v>26.31999969482422</v>
       </c>
       <c r="C15" t="n">
-        <v>191.9100036621094</v>
+        <v>26.70000076293945</v>
       </c>
       <c r="D15" t="n">
-        <v>189.8800048828125</v>
+        <v>25.96999931335449</v>
       </c>
       <c r="E15" t="n">
-        <v>191.4499969482422</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="F15" t="n">
-        <v>191.4499969482422</v>
+        <v>26.46999931335449</v>
       </c>
       <c r="G15" t="n">
-        <v>46505100</v>
+        <v>4231300</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -876,26 +876,26 @@
         <v>45251</v>
       </c>
       <c r="B16" t="n">
-        <v>191.4100036621094</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="C16" t="n">
-        <v>191.5200042724609</v>
+        <v>26.625</v>
       </c>
       <c r="D16" t="n">
-        <v>189.7400054931641</v>
+        <v>26.17000007629395</v>
       </c>
       <c r="E16" t="n">
-        <v>190.6399993896484</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="F16" t="n">
-        <v>190.6399993896484</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="G16" t="n">
-        <v>38134500</v>
+        <v>2881900</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -904,26 +904,26 @@
         <v>45252</v>
       </c>
       <c r="B17" t="n">
-        <v>191.4900054931641</v>
+        <v>26.28000068664551</v>
       </c>
       <c r="C17" t="n">
-        <v>192.9299926757812</v>
+        <v>26.6200008392334</v>
       </c>
       <c r="D17" t="n">
-        <v>190.8300018310547</v>
+        <v>25.97999954223633</v>
       </c>
       <c r="E17" t="n">
-        <v>191.3099975585938</v>
+        <v>26.3799991607666</v>
       </c>
       <c r="F17" t="n">
-        <v>191.3099975585938</v>
+        <v>26.3799991607666</v>
       </c>
       <c r="G17" t="n">
-        <v>39617700</v>
+        <v>2923700</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -932,26 +932,26 @@
         <v>45254</v>
       </c>
       <c r="B18" t="n">
-        <v>190.8699951171875</v>
+        <v>26.15999984741211</v>
       </c>
       <c r="C18" t="n">
-        <v>190.8999938964844</v>
+        <v>26.55999946594238</v>
       </c>
       <c r="D18" t="n">
-        <v>189.25</v>
+        <v>26.15999984741211</v>
       </c>
       <c r="E18" t="n">
-        <v>189.9700012207031</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="F18" t="n">
-        <v>189.9700012207031</v>
+        <v>26.23999977111816</v>
       </c>
       <c r="G18" t="n">
-        <v>24048300</v>
+        <v>1282300</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -960,26 +960,26 @@
         <v>45257</v>
       </c>
       <c r="B19" t="n">
-        <v>189.9199981689453</v>
+        <v>26.21999931335449</v>
       </c>
       <c r="C19" t="n">
-        <v>190.6699981689453</v>
+        <v>26.59600067138672</v>
       </c>
       <c r="D19" t="n">
-        <v>188.8999938964844</v>
+        <v>25.8700008392334</v>
       </c>
       <c r="E19" t="n">
-        <v>189.7899932861328</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="F19" t="n">
-        <v>189.7899932861328</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="G19" t="n">
-        <v>40552600</v>
+        <v>3429000</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -988,26 +988,26 @@
         <v>45258</v>
       </c>
       <c r="B20" t="n">
-        <v>189.7799987792969</v>
+        <v>26.21999931335449</v>
       </c>
       <c r="C20" t="n">
-        <v>191.0800018310547</v>
+        <v>26.29000091552734</v>
       </c>
       <c r="D20" t="n">
-        <v>189.3999938964844</v>
+        <v>25.63999938964844</v>
       </c>
       <c r="E20" t="n">
-        <v>190.3999938964844</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="F20" t="n">
-        <v>190.3999938964844</v>
+        <v>26.07999992370605</v>
       </c>
       <c r="G20" t="n">
-        <v>38415400</v>
+        <v>4382400</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -1016,26 +1016,26 @@
         <v>45259</v>
       </c>
       <c r="B21" t="n">
-        <v>190.8999938964844</v>
+        <v>26.42000007629395</v>
       </c>
       <c r="C21" t="n">
-        <v>192.0899963378906</v>
+        <v>27.04000091552734</v>
       </c>
       <c r="D21" t="n">
-        <v>188.9700012207031</v>
+        <v>26.21999931335449</v>
       </c>
       <c r="E21" t="n">
-        <v>189.3699951171875</v>
+        <v>26.44000053405762</v>
       </c>
       <c r="F21" t="n">
-        <v>189.3699951171875</v>
+        <v>26.44000053405762</v>
       </c>
       <c r="G21" t="n">
-        <v>43014200</v>
+        <v>6103800</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -1044,26 +1044,26 @@
         <v>45260</v>
       </c>
       <c r="B22" t="n">
-        <v>189.8399963378906</v>
+        <v>26.57999992370605</v>
       </c>
       <c r="C22" t="n">
-        <v>190.3200073242188</v>
+        <v>27.2450008392334</v>
       </c>
       <c r="D22" t="n">
-        <v>188.1900024414062</v>
+        <v>26.44000053405762</v>
       </c>
       <c r="E22" t="n">
-        <v>189.9499969482422</v>
+        <v>26.86000061035156</v>
       </c>
       <c r="F22" t="n">
-        <v>189.9499969482422</v>
+        <v>26.86000061035156</v>
       </c>
       <c r="G22" t="n">
-        <v>48794400</v>
+        <v>4823500</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -1072,26 +1072,26 @@
         <v>45261</v>
       </c>
       <c r="B23" t="n">
-        <v>190.3300018310547</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>191.5599975585938</v>
+        <v>28.01499938964844</v>
       </c>
       <c r="D23" t="n">
-        <v>189.2299957275391</v>
+        <v>26.51000022888184</v>
       </c>
       <c r="E23" t="n">
-        <v>191.2400054931641</v>
+        <v>27.73999977111816</v>
       </c>
       <c r="F23" t="n">
-        <v>191.2400054931641</v>
+        <v>27.73999977111816</v>
       </c>
       <c r="G23" t="n">
-        <v>45679300</v>
+        <v>5455100</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -1100,26 +1100,26 @@
         <v>45264</v>
       </c>
       <c r="B24" t="n">
-        <v>189.9799957275391</v>
+        <v>27.28000068664551</v>
       </c>
       <c r="C24" t="n">
-        <v>190.0500030517578</v>
+        <v>27.93000030517578</v>
       </c>
       <c r="D24" t="n">
-        <v>187.4499969482422</v>
+        <v>26.76499938964844</v>
       </c>
       <c r="E24" t="n">
-        <v>189.4299926757812</v>
+        <v>26.80999946594238</v>
       </c>
       <c r="F24" t="n">
-        <v>189.4299926757812</v>
+        <v>26.80999946594238</v>
       </c>
       <c r="G24" t="n">
-        <v>43389500</v>
+        <v>4965000</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -1128,26 +1128,26 @@
         <v>45265</v>
       </c>
       <c r="B25" t="n">
-        <v>190.2100067138672</v>
+        <v>26.5</v>
       </c>
       <c r="C25" t="n">
-        <v>194.3999938964844</v>
+        <v>26.53000068664551</v>
       </c>
       <c r="D25" t="n">
-        <v>190.1799926757812</v>
+        <v>25.1299991607666</v>
       </c>
       <c r="E25" t="n">
-        <v>193.4199981689453</v>
+        <v>25.23999977111816</v>
       </c>
       <c r="F25" t="n">
-        <v>193.4199981689453</v>
+        <v>25.23999977111816</v>
       </c>
       <c r="G25" t="n">
-        <v>66628400</v>
+        <v>7715800</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -1156,26 +1156,26 @@
         <v>45266</v>
       </c>
       <c r="B26" t="n">
-        <v>194.4499969482422</v>
+        <v>25.60000038146973</v>
       </c>
       <c r="C26" t="n">
-        <v>194.7599945068359</v>
+        <v>25.95999908447266</v>
       </c>
       <c r="D26" t="n">
-        <v>192.1100006103516</v>
+        <v>25.04000091552734</v>
       </c>
       <c r="E26" t="n">
-        <v>192.3200073242188</v>
+        <v>25.1200008392334</v>
       </c>
       <c r="F26" t="n">
-        <v>192.3200073242188</v>
+        <v>25.1200008392334</v>
       </c>
       <c r="G26" t="n">
-        <v>41089700</v>
+        <v>4055000</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -1184,26 +1184,26 @@
         <v>45267</v>
       </c>
       <c r="B27" t="n">
-        <v>193.6300048828125</v>
+        <v>25.15999984741211</v>
       </c>
       <c r="C27" t="n">
-        <v>195</v>
+        <v>25.29000091552734</v>
       </c>
       <c r="D27" t="n">
-        <v>193.5899963378906</v>
+        <v>24.27000045776367</v>
       </c>
       <c r="E27" t="n">
-        <v>194.2700042724609</v>
+        <v>24.94000053405762</v>
       </c>
       <c r="F27" t="n">
-        <v>194.2700042724609</v>
+        <v>24.94000053405762</v>
       </c>
       <c r="G27" t="n">
-        <v>47477700</v>
+        <v>6780000</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
@@ -1212,26 +1212,418 @@
         <v>45268</v>
       </c>
       <c r="B28" t="n">
-        <v>194.1999969482422</v>
+        <v>25.04000091552734</v>
       </c>
       <c r="C28" t="n">
-        <v>195.9900054931641</v>
+        <v>25.72500038146973</v>
       </c>
       <c r="D28" t="n">
-        <v>193.6699981689453</v>
+        <v>24.8700008392334</v>
       </c>
       <c r="E28" t="n">
-        <v>195.7100067138672</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="F28" t="n">
-        <v>195.7100067138672</v>
+        <v>25.02000045776367</v>
       </c>
       <c r="G28" t="n">
-        <v>53377300</v>
+        <v>5128100</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="B29" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25.31999969482422</v>
+      </c>
+      <c r="D29" t="n">
+        <v>24.67000007629395</v>
+      </c>
+      <c r="E29" t="n">
+        <v>24.93000030517578</v>
+      </c>
+      <c r="F29" t="n">
+        <v>24.93000030517578</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4290700</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="B30" t="n">
+        <v>24.68000030517578</v>
+      </c>
+      <c r="C30" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D30" t="n">
+        <v>23.79999923706055</v>
+      </c>
+      <c r="E30" t="n">
+        <v>24.04999923706055</v>
+      </c>
+      <c r="F30" t="n">
+        <v>24.04999923706055</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5849300</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="B31" t="n">
+        <v>24.04000091552734</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26.04000091552734</v>
+      </c>
+      <c r="D31" t="n">
+        <v>23.88500022888184</v>
+      </c>
+      <c r="E31" t="n">
+        <v>25.98999977111816</v>
+      </c>
+      <c r="F31" t="n">
+        <v>25.98999977111816</v>
+      </c>
+      <c r="G31" t="n">
+        <v>7919100</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="B32" t="n">
+        <v>27.04000091552734</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30.13500022888184</v>
+      </c>
+      <c r="D32" t="n">
+        <v>26.94000053405762</v>
+      </c>
+      <c r="E32" t="n">
+        <v>29.89999961853027</v>
+      </c>
+      <c r="F32" t="n">
+        <v>29.89999961853027</v>
+      </c>
+      <c r="G32" t="n">
+        <v>16594000</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B33" t="n">
+        <v>29.93000030517578</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>29.67000007629395</v>
+      </c>
+      <c r="E33" t="n">
+        <v>31.10000038146973</v>
+      </c>
+      <c r="F33" t="n">
+        <v>31.10000038146973</v>
+      </c>
+      <c r="G33" t="n">
+        <v>19183200</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="B34" t="n">
+        <v>31.44000053405762</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32.31000137329102</v>
+      </c>
+      <c r="D34" t="n">
+        <v>30.52000045776367</v>
+      </c>
+      <c r="E34" t="n">
+        <v>30.52000045776367</v>
+      </c>
+      <c r="F34" t="n">
+        <v>30.52000045776367</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7270400</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B35" t="n">
+        <v>31.19000053405762</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="n">
+        <v>30.90999984741211</v>
+      </c>
+      <c r="E35" t="n">
+        <v>32.41999816894531</v>
+      </c>
+      <c r="F35" t="n">
+        <v>32.41999816894531</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7967200</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B36" t="n">
+        <v>32.0099983215332</v>
+      </c>
+      <c r="C36" t="n">
+        <v>32.47499847412109</v>
+      </c>
+      <c r="D36" t="n">
+        <v>30.55999946594238</v>
+      </c>
+      <c r="E36" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="F36" t="n">
+        <v>30.64999961853027</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7516900</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="B37" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="C37" t="n">
+        <v>32.13999938964844</v>
+      </c>
+      <c r="D37" t="n">
+        <v>30.59000015258789</v>
+      </c>
+      <c r="E37" t="n">
+        <v>32.02000045776367</v>
+      </c>
+      <c r="F37" t="n">
+        <v>32.02000045776367</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5566100</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="B38" t="n">
+        <v>32.95999908447266</v>
+      </c>
+      <c r="C38" t="n">
+        <v>34.43999862670898</v>
+      </c>
+      <c r="D38" t="n">
+        <v>32.88000106811523</v>
+      </c>
+      <c r="E38" t="n">
+        <v>33.77000045776367</v>
+      </c>
+      <c r="F38" t="n">
+        <v>33.77000045776367</v>
+      </c>
+      <c r="G38" t="n">
+        <v>9064600</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="B39" t="n">
+        <v>33.86000061035156</v>
+      </c>
+      <c r="C39" t="n">
+        <v>34.11999893188477</v>
+      </c>
+      <c r="D39" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>33.86999893188477</v>
+      </c>
+      <c r="F39" t="n">
+        <v>33.86999893188477</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4505900</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B40" t="n">
+        <v>34.22999954223633</v>
+      </c>
+      <c r="C40" t="n">
+        <v>35.03499984741211</v>
+      </c>
+      <c r="D40" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="E40" t="n">
+        <v>34.81000137329102</v>
+      </c>
+      <c r="F40" t="n">
+        <v>34.81000137329102</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5798100</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="B41" t="n">
+        <v>34.68000030517578</v>
+      </c>
+      <c r="C41" t="n">
+        <v>34.8120002746582</v>
+      </c>
+      <c r="D41" t="n">
+        <v>34.19800186157227</v>
+      </c>
+      <c r="E41" t="n">
+        <v>34.54999923706055</v>
+      </c>
+      <c r="F41" t="n">
+        <v>34.54999923706055</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3909900</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B42" t="n">
+        <v>34.31000137329102</v>
+      </c>
+      <c r="C42" t="n">
+        <v>34.7400016784668</v>
+      </c>
+      <c r="D42" t="n">
+        <v>33.93000030517578</v>
+      </c>
+      <c r="E42" t="n">
+        <v>34</v>
+      </c>
+      <c r="F42" t="n">
+        <v>34</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3294300</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>AA</t>
         </is>
       </c>
     </row>

--- a/all_stock_data.xlsx
+++ b/all_stock_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,1149 +481,981 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45231</v>
+        <v>45383</v>
       </c>
       <c r="B2" t="n">
-        <v>25.67000007629395</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="n">
-        <v>25.78000068664551</v>
+        <v>1009.849975585938</v>
       </c>
       <c r="D2" t="n">
-        <v>24.27499961853027</v>
+        <v>987.4500122070312</v>
       </c>
       <c r="E2" t="n">
-        <v>25.03000068664551</v>
+        <v>992.25</v>
       </c>
       <c r="F2" t="n">
-        <v>25.03000068664551</v>
+        <v>992.25</v>
       </c>
       <c r="G2" t="n">
-        <v>6202100</v>
+        <v>8629407</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45232</v>
+        <v>45384</v>
       </c>
       <c r="B3" t="n">
-        <v>25.5</v>
+        <v>999</v>
       </c>
       <c r="C3" t="n">
-        <v>26.14200019836426</v>
+        <v>1008</v>
       </c>
       <c r="D3" t="n">
-        <v>25.29500007629395</v>
+        <v>993.4000244140625</v>
       </c>
       <c r="E3" t="n">
-        <v>26.06999969482422</v>
+        <v>1004.650024414062</v>
       </c>
       <c r="F3" t="n">
-        <v>26.06999969482422</v>
+        <v>1004.650024414062</v>
       </c>
       <c r="G3" t="n">
-        <v>5825300</v>
+        <v>7995931</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45233</v>
+        <v>45385</v>
       </c>
       <c r="B4" t="n">
-        <v>26.5</v>
+        <v>1004</v>
       </c>
       <c r="C4" t="n">
-        <v>27.0049991607666</v>
+        <v>1014.450012207031</v>
       </c>
       <c r="D4" t="n">
-        <v>26.13999938964844</v>
+        <v>992.5499877929688</v>
       </c>
       <c r="E4" t="n">
-        <v>26.53000068664551</v>
+        <v>1009.150024414062</v>
       </c>
       <c r="F4" t="n">
-        <v>26.53000068664551</v>
+        <v>1009.150024414062</v>
       </c>
       <c r="G4" t="n">
-        <v>5478000</v>
+        <v>8040366</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45236</v>
+        <v>45386</v>
       </c>
       <c r="B5" t="n">
-        <v>26.70999908447266</v>
+        <v>1016</v>
       </c>
       <c r="C5" t="n">
-        <v>26.72999954223633</v>
+        <v>1017</v>
       </c>
       <c r="D5" t="n">
-        <v>25.76000022888184</v>
+        <v>998.1500244140625</v>
       </c>
       <c r="E5" t="n">
-        <v>25.96999931335449</v>
+        <v>1011.599975585938</v>
       </c>
       <c r="F5" t="n">
-        <v>25.96999931335449</v>
+        <v>1011.599975585938</v>
       </c>
       <c r="G5" t="n">
-        <v>3869500</v>
+        <v>9138276</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45237</v>
+        <v>45387</v>
       </c>
       <c r="B6" t="n">
-        <v>25.21999931335449</v>
+        <v>1011.599975585938</v>
       </c>
       <c r="C6" t="n">
-        <v>25.59499931335449</v>
+        <v>1012.5</v>
       </c>
       <c r="D6" t="n">
-        <v>24.81999969482422</v>
+        <v>1004.400024414062</v>
       </c>
       <c r="E6" t="n">
-        <v>25.54000091552734</v>
+        <v>1007.099975585938</v>
       </c>
       <c r="F6" t="n">
-        <v>25.54000091552734</v>
+        <v>1007.099975585938</v>
       </c>
       <c r="G6" t="n">
-        <v>4852900</v>
+        <v>4519120</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45238</v>
+        <v>45390</v>
       </c>
       <c r="B7" t="n">
-        <v>25.1200008392334</v>
+        <v>1010.049987792969</v>
       </c>
       <c r="C7" t="n">
-        <v>25.65999984741211</v>
+        <v>1016.400024414062</v>
       </c>
       <c r="D7" t="n">
-        <v>24.96500015258789</v>
+        <v>1004</v>
       </c>
       <c r="E7" t="n">
-        <v>25.53000068664551</v>
+        <v>1013.200012207031</v>
       </c>
       <c r="F7" t="n">
-        <v>25.53000068664551</v>
+        <v>1013.200012207031</v>
       </c>
       <c r="G7" t="n">
-        <v>3671400</v>
+        <v>5188052</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45239</v>
+        <v>45391</v>
       </c>
       <c r="B8" t="n">
-        <v>25.80999946594238</v>
+        <v>1021</v>
       </c>
       <c r="C8" t="n">
-        <v>25.8700008392334</v>
+        <v>1029.5</v>
       </c>
       <c r="D8" t="n">
-        <v>24.40999984741211</v>
+        <v>1005</v>
       </c>
       <c r="E8" t="n">
-        <v>24.57999992370605</v>
+        <v>1008.5</v>
       </c>
       <c r="F8" t="n">
-        <v>24.57999992370605</v>
+        <v>1008.5</v>
       </c>
       <c r="G8" t="n">
-        <v>4078500</v>
+        <v>8539041</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45240</v>
+        <v>45392</v>
       </c>
       <c r="B9" t="n">
-        <v>24.70000076293945</v>
+        <v>1012.25</v>
       </c>
       <c r="C9" t="n">
-        <v>24.88999938964844</v>
+        <v>1021</v>
       </c>
       <c r="D9" t="n">
-        <v>24.28000068664551</v>
+        <v>1010</v>
       </c>
       <c r="E9" t="n">
-        <v>24.63999938964844</v>
+        <v>1013.5</v>
       </c>
       <c r="F9" t="n">
-        <v>24.63999938964844</v>
+        <v>1013.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3039400</v>
+        <v>4554077</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45243</v>
+        <v>45394</v>
       </c>
       <c r="B10" t="n">
-        <v>24.48999977111816</v>
+        <v>1014</v>
       </c>
       <c r="C10" t="n">
-        <v>25.02499961853027</v>
+        <v>1029</v>
       </c>
       <c r="D10" t="n">
-        <v>24.29999923706055</v>
+        <v>1013.5</v>
       </c>
       <c r="E10" t="n">
-        <v>24.60000038146973</v>
+        <v>1018.5</v>
       </c>
       <c r="F10" t="n">
-        <v>24.60000038146973</v>
+        <v>1018.5</v>
       </c>
       <c r="G10" t="n">
-        <v>2839700</v>
+        <v>11575194</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45244</v>
+        <v>45397</v>
       </c>
       <c r="B11" t="n">
-        <v>25.44000053405762</v>
+        <v>998.0999755859375</v>
       </c>
       <c r="C11" t="n">
-        <v>26.56500053405762</v>
+        <v>1006.950012207031</v>
       </c>
       <c r="D11" t="n">
-        <v>25.36000061035156</v>
+        <v>978.5</v>
       </c>
       <c r="E11" t="n">
-        <v>26.17000007629395</v>
+        <v>998.7999877929688</v>
       </c>
       <c r="F11" t="n">
-        <v>26.17000007629395</v>
+        <v>998.7999877929688</v>
       </c>
       <c r="G11" t="n">
-        <v>5472100</v>
+        <v>12632409</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45245</v>
+        <v>45398</v>
       </c>
       <c r="B12" t="n">
-        <v>26.52000045776367</v>
+        <v>990</v>
       </c>
       <c r="C12" t="n">
-        <v>27.34000015258789</v>
+        <v>1004.900024414062</v>
       </c>
       <c r="D12" t="n">
-        <v>26.36000061035156</v>
+        <v>982.0999755859375</v>
       </c>
       <c r="E12" t="n">
-        <v>26.95000076293945</v>
+        <v>992.7999877929688</v>
       </c>
       <c r="F12" t="n">
-        <v>26.95000076293945</v>
+        <v>992.7999877929688</v>
       </c>
       <c r="G12" t="n">
-        <v>5857200</v>
+        <v>9574762</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45246</v>
+        <v>45400</v>
       </c>
       <c r="B13" t="n">
-        <v>26.60000038146973</v>
+        <v>996.3499755859375</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98999977111816</v>
+        <v>1003.099975585938</v>
       </c>
       <c r="D13" t="n">
-        <v>25.94000053405762</v>
+        <v>966.25</v>
       </c>
       <c r="E13" t="n">
-        <v>26</v>
+        <v>971.3499755859375</v>
       </c>
       <c r="F13" t="n">
-        <v>26</v>
+        <v>971.3499755859375</v>
       </c>
       <c r="G13" t="n">
-        <v>4080300</v>
+        <v>13540490</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45247</v>
+        <v>45401</v>
       </c>
       <c r="B14" t="n">
-        <v>26.35000038146973</v>
+        <v>964</v>
       </c>
       <c r="C14" t="n">
-        <v>26.97800064086914</v>
+        <v>967.9500122070312</v>
       </c>
       <c r="D14" t="n">
-        <v>26.1200008392334</v>
+        <v>944</v>
       </c>
       <c r="E14" t="n">
-        <v>26.21999931335449</v>
+        <v>963.2000122070312</v>
       </c>
       <c r="F14" t="n">
-        <v>26.21999931335449</v>
+        <v>963.2000122070312</v>
       </c>
       <c r="G14" t="n">
-        <v>4988700</v>
+        <v>15381310</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45250</v>
+        <v>45404</v>
       </c>
       <c r="B15" t="n">
-        <v>26.31999969482422</v>
+        <v>978.75</v>
       </c>
       <c r="C15" t="n">
-        <v>26.70000076293945</v>
+        <v>978.75</v>
       </c>
       <c r="D15" t="n">
-        <v>25.96999931335449</v>
+        <v>966</v>
       </c>
       <c r="E15" t="n">
-        <v>26.46999931335449</v>
+        <v>973.5499877929688</v>
       </c>
       <c r="F15" t="n">
-        <v>26.46999931335449</v>
+        <v>973.5499877929688</v>
       </c>
       <c r="G15" t="n">
-        <v>4231300</v>
+        <v>7187959</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45251</v>
+        <v>45405</v>
       </c>
       <c r="B16" t="n">
-        <v>26.28000068664551</v>
+        <v>976</v>
       </c>
       <c r="C16" t="n">
-        <v>26.625</v>
+        <v>994.5</v>
       </c>
       <c r="D16" t="n">
-        <v>26.17000007629395</v>
+        <v>974.0499877929688</v>
       </c>
       <c r="E16" t="n">
-        <v>26.38999938964844</v>
+        <v>986.75</v>
       </c>
       <c r="F16" t="n">
-        <v>26.38999938964844</v>
+        <v>986.75</v>
       </c>
       <c r="G16" t="n">
-        <v>2881900</v>
+        <v>7994116</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45252</v>
+        <v>45406</v>
       </c>
       <c r="B17" t="n">
-        <v>26.28000068664551</v>
+        <v>992.4000244140625</v>
       </c>
       <c r="C17" t="n">
-        <v>26.6200008392334</v>
+        <v>995.9000244140625</v>
       </c>
       <c r="D17" t="n">
-        <v>25.97999954223633</v>
+        <v>988</v>
       </c>
       <c r="E17" t="n">
-        <v>26.3799991607666</v>
+        <v>991.6500244140625</v>
       </c>
       <c r="F17" t="n">
-        <v>26.3799991607666</v>
+        <v>991.6500244140625</v>
       </c>
       <c r="G17" t="n">
-        <v>2923700</v>
+        <v>4671450</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45254</v>
+        <v>45407</v>
       </c>
       <c r="B18" t="n">
-        <v>26.15999984741211</v>
+        <v>992.5</v>
       </c>
       <c r="C18" t="n">
-        <v>26.55999946594238</v>
+        <v>1003.299987792969</v>
       </c>
       <c r="D18" t="n">
-        <v>26.15999984741211</v>
+        <v>989.5</v>
       </c>
       <c r="E18" t="n">
-        <v>26.23999977111816</v>
+        <v>1001.25</v>
       </c>
       <c r="F18" t="n">
-        <v>26.23999977111816</v>
+        <v>1001.25</v>
       </c>
       <c r="G18" t="n">
-        <v>1282300</v>
+        <v>8366455</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45257</v>
+        <v>45408</v>
       </c>
       <c r="B19" t="n">
-        <v>26.21999931335449</v>
+        <v>1007.799987792969</v>
       </c>
       <c r="C19" t="n">
-        <v>26.59600067138672</v>
+        <v>1008.950012207031</v>
       </c>
       <c r="D19" t="n">
-        <v>25.8700008392334</v>
+        <v>996.5999755859375</v>
       </c>
       <c r="E19" t="n">
-        <v>26.29999923706055</v>
+        <v>999.5</v>
       </c>
       <c r="F19" t="n">
-        <v>26.29999923706055</v>
+        <v>999.5</v>
       </c>
       <c r="G19" t="n">
-        <v>3429000</v>
+        <v>7937500</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45258</v>
+        <v>45411</v>
       </c>
       <c r="B20" t="n">
-        <v>26.21999931335449</v>
+        <v>1003.049987792969</v>
       </c>
       <c r="C20" t="n">
-        <v>26.29000091552734</v>
+        <v>1005.75</v>
       </c>
       <c r="D20" t="n">
-        <v>25.63999938964844</v>
+        <v>999</v>
       </c>
       <c r="E20" t="n">
-        <v>26.07999992370605</v>
+        <v>1000.599975585938</v>
       </c>
       <c r="F20" t="n">
-        <v>26.07999992370605</v>
+        <v>1000.599975585938</v>
       </c>
       <c r="G20" t="n">
-        <v>4382400</v>
+        <v>4764750</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45259</v>
+        <v>45412</v>
       </c>
       <c r="B21" t="n">
-        <v>26.42000007629395</v>
+        <v>1005</v>
       </c>
       <c r="C21" t="n">
-        <v>27.04000091552734</v>
+        <v>1019.450012207031</v>
       </c>
       <c r="D21" t="n">
-        <v>26.21999931335449</v>
+        <v>997.5</v>
       </c>
       <c r="E21" t="n">
-        <v>26.44000053405762</v>
+        <v>1007.900024414062</v>
       </c>
       <c r="F21" t="n">
-        <v>26.44000053405762</v>
+        <v>1007.900024414062</v>
       </c>
       <c r="G21" t="n">
-        <v>6103800</v>
+        <v>9047011</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45260</v>
+        <v>45414</v>
       </c>
       <c r="B22" t="n">
-        <v>26.57999992370605</v>
+        <v>1020</v>
       </c>
       <c r="C22" t="n">
-        <v>27.2450008392334</v>
+        <v>1030</v>
       </c>
       <c r="D22" t="n">
-        <v>26.44000053405762</v>
+        <v>1011.549987792969</v>
       </c>
       <c r="E22" t="n">
-        <v>26.86000061035156</v>
+        <v>1027.800048828125</v>
       </c>
       <c r="F22" t="n">
-        <v>26.86000061035156</v>
+        <v>1027.800048828125</v>
       </c>
       <c r="G22" t="n">
-        <v>4823500</v>
+        <v>12695047</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45261</v>
+        <v>45415</v>
       </c>
       <c r="B23" t="n">
-        <v>27</v>
+        <v>1038</v>
       </c>
       <c r="C23" t="n">
-        <v>28.01499938964844</v>
+        <v>1040.199951171875</v>
       </c>
       <c r="D23" t="n">
-        <v>26.51000022888184</v>
+        <v>996</v>
       </c>
       <c r="E23" t="n">
-        <v>27.73999977111816</v>
+        <v>1013.400024414062</v>
       </c>
       <c r="F23" t="n">
-        <v>27.73999977111816</v>
+        <v>1013.400024414062</v>
       </c>
       <c r="G23" t="n">
-        <v>5455100</v>
+        <v>11871773</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45264</v>
+        <v>45418</v>
       </c>
       <c r="B24" t="n">
-        <v>27.28000068664551</v>
+        <v>1015</v>
       </c>
       <c r="C24" t="n">
-        <v>27.93000030517578</v>
+        <v>1019.799987792969</v>
       </c>
       <c r="D24" t="n">
-        <v>26.76499938964844</v>
+        <v>1005</v>
       </c>
       <c r="E24" t="n">
-        <v>26.80999946594238</v>
+        <v>1016.200012207031</v>
       </c>
       <c r="F24" t="n">
-        <v>26.80999946594238</v>
+        <v>1016.200012207031</v>
       </c>
       <c r="G24" t="n">
-        <v>4965000</v>
+        <v>5724760</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45265</v>
+        <v>45419</v>
       </c>
       <c r="B25" t="n">
-        <v>26.5</v>
+        <v>1016.200012207031</v>
       </c>
       <c r="C25" t="n">
-        <v>26.53000068664551</v>
+        <v>1017.950012207031</v>
       </c>
       <c r="D25" t="n">
-        <v>25.1299991607666</v>
+        <v>982.0499877929688</v>
       </c>
       <c r="E25" t="n">
-        <v>25.23999977111816</v>
+        <v>988.5499877929688</v>
       </c>
       <c r="F25" t="n">
-        <v>25.23999977111816</v>
+        <v>988.5499877929688</v>
       </c>
       <c r="G25" t="n">
-        <v>7715800</v>
+        <v>8877426</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45266</v>
+        <v>45420</v>
       </c>
       <c r="B26" t="n">
-        <v>25.60000038146973</v>
+        <v>986.9500122070312</v>
       </c>
       <c r="C26" t="n">
-        <v>25.95999908447266</v>
+        <v>1015</v>
       </c>
       <c r="D26" t="n">
-        <v>25.04000091552734</v>
+        <v>977</v>
       </c>
       <c r="E26" t="n">
-        <v>25.1200008392334</v>
+        <v>1012.099975585938</v>
       </c>
       <c r="F26" t="n">
-        <v>25.1200008392334</v>
+        <v>1012.099975585938</v>
       </c>
       <c r="G26" t="n">
-        <v>4055000</v>
+        <v>7519352</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45267</v>
+        <v>45421</v>
       </c>
       <c r="B27" t="n">
-        <v>25.15999984741211</v>
+        <v>1011</v>
       </c>
       <c r="C27" t="n">
-        <v>25.29000091552734</v>
+        <v>1043.199951171875</v>
       </c>
       <c r="D27" t="n">
-        <v>24.27000045776367</v>
+        <v>1007.299987792969</v>
       </c>
       <c r="E27" t="n">
-        <v>24.94000053405762</v>
+        <v>1030.300048828125</v>
       </c>
       <c r="F27" t="n">
-        <v>24.94000053405762</v>
+        <v>1030.300048828125</v>
       </c>
       <c r="G27" t="n">
-        <v>6780000</v>
+        <v>19189798</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45268</v>
+        <v>45422</v>
       </c>
       <c r="B28" t="n">
-        <v>25.04000091552734</v>
+        <v>1037</v>
       </c>
       <c r="C28" t="n">
-        <v>25.72500038146973</v>
+        <v>1050.349975585938</v>
       </c>
       <c r="D28" t="n">
-        <v>24.8700008392334</v>
+        <v>1030.400024414062</v>
       </c>
       <c r="E28" t="n">
-        <v>25.02000045776367</v>
+        <v>1046.650024414062</v>
       </c>
       <c r="F28" t="n">
-        <v>25.02000045776367</v>
+        <v>1046.650024414062</v>
       </c>
       <c r="G28" t="n">
-        <v>5128100</v>
+        <v>13383183</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45271</v>
+        <v>45425</v>
       </c>
       <c r="B29" t="n">
-        <v>24.75</v>
+        <v>1005</v>
       </c>
       <c r="C29" t="n">
-        <v>25.31999969482422</v>
+        <v>1008.700012207031</v>
       </c>
       <c r="D29" t="n">
-        <v>24.67000007629395</v>
+        <v>947.2000122070312</v>
       </c>
       <c r="E29" t="n">
-        <v>24.93000030517578</v>
+        <v>959.75</v>
       </c>
       <c r="F29" t="n">
-        <v>24.93000030517578</v>
+        <v>959.75</v>
       </c>
       <c r="G29" t="n">
-        <v>4290700</v>
+        <v>58974762</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45272</v>
+        <v>45426</v>
       </c>
       <c r="B30" t="n">
-        <v>24.68000030517578</v>
+        <v>965.0999755859375</v>
       </c>
       <c r="C30" t="n">
-        <v>24.75</v>
+        <v>968</v>
       </c>
       <c r="D30" t="n">
-        <v>23.79999923706055</v>
+        <v>953.25</v>
       </c>
       <c r="E30" t="n">
-        <v>24.04999923706055</v>
+        <v>964.6500244140625</v>
       </c>
       <c r="F30" t="n">
-        <v>24.04999923706055</v>
+        <v>964.6500244140625</v>
       </c>
       <c r="G30" t="n">
-        <v>5849300</v>
+        <v>16325689</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45273</v>
+        <v>45427</v>
       </c>
       <c r="B31" t="n">
-        <v>24.04000091552734</v>
+        <v>970.9500122070312</v>
       </c>
       <c r="C31" t="n">
-        <v>26.04000091552734</v>
+        <v>972.9500122070312</v>
       </c>
       <c r="D31" t="n">
-        <v>23.88500022888184</v>
+        <v>945.0999755859375</v>
       </c>
       <c r="E31" t="n">
-        <v>25.98999977111816</v>
+        <v>947.2999877929688</v>
       </c>
       <c r="F31" t="n">
-        <v>25.98999977111816</v>
+        <v>947.2999877929688</v>
       </c>
       <c r="G31" t="n">
-        <v>7919100</v>
+        <v>19668239</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45274</v>
+        <v>45428</v>
       </c>
       <c r="B32" t="n">
-        <v>27.04000091552734</v>
+        <v>953.2000122070312</v>
       </c>
       <c r="C32" t="n">
-        <v>30.13500022888184</v>
+        <v>954.4000244140625</v>
       </c>
       <c r="D32" t="n">
-        <v>26.94000053405762</v>
+        <v>919</v>
       </c>
       <c r="E32" t="n">
-        <v>29.89999961853027</v>
+        <v>936.4000244140625</v>
       </c>
       <c r="F32" t="n">
-        <v>29.89999961853027</v>
+        <v>936.4000244140625</v>
       </c>
       <c r="G32" t="n">
-        <v>16594000</v>
+        <v>31240770</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45275</v>
+        <v>45429</v>
       </c>
       <c r="B33" t="n">
-        <v>29.93000030517578</v>
+        <v>944</v>
       </c>
       <c r="C33" t="n">
-        <v>32.5</v>
+        <v>953.4000244140625</v>
       </c>
       <c r="D33" t="n">
-        <v>29.67000007629395</v>
+        <v>941</v>
       </c>
       <c r="E33" t="n">
-        <v>31.10000038146973</v>
+        <v>945.7000122070312</v>
       </c>
       <c r="F33" t="n">
-        <v>31.10000038146973</v>
+        <v>945.7000122070312</v>
       </c>
       <c r="G33" t="n">
-        <v>19183200</v>
+        <v>13205512</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45278</v>
+        <v>45433</v>
       </c>
       <c r="B34" t="n">
-        <v>31.44000053405762</v>
+        <v>954</v>
       </c>
       <c r="C34" t="n">
-        <v>32.31000137329102</v>
+        <v>956.6500244140625</v>
       </c>
       <c r="D34" t="n">
-        <v>30.52000045776367</v>
+        <v>948.7000122070312</v>
       </c>
       <c r="E34" t="n">
-        <v>30.52000045776367</v>
+        <v>951.2999877929688</v>
       </c>
       <c r="F34" t="n">
-        <v>30.52000045776367</v>
+        <v>951.2999877929688</v>
       </c>
       <c r="G34" t="n">
-        <v>7270400</v>
+        <v>10055258</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45279</v>
+        <v>45434</v>
       </c>
       <c r="B35" t="n">
-        <v>31.19000053405762</v>
+        <v>952</v>
       </c>
       <c r="C35" t="n">
-        <v>33</v>
+        <v>954.9000244140625</v>
       </c>
       <c r="D35" t="n">
-        <v>30.90999984741211</v>
+        <v>942.5499877929688</v>
       </c>
       <c r="E35" t="n">
-        <v>32.41999816894531</v>
+        <v>947.5</v>
       </c>
       <c r="F35" t="n">
-        <v>32.41999816894531</v>
+        <v>947.5</v>
       </c>
       <c r="G35" t="n">
-        <v>7967200</v>
+        <v>9495279</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45280</v>
+        <v>45435</v>
       </c>
       <c r="B36" t="n">
-        <v>32.0099983215332</v>
+        <v>950</v>
       </c>
       <c r="C36" t="n">
-        <v>32.47499847412109</v>
+        <v>963.4500122070312</v>
       </c>
       <c r="D36" t="n">
-        <v>30.55999946594238</v>
+        <v>945.0499877929688</v>
       </c>
       <c r="E36" t="n">
-        <v>30.64999961853027</v>
+        <v>962.3499755859375</v>
       </c>
       <c r="F36" t="n">
-        <v>30.64999961853027</v>
+        <v>962.3499755859375</v>
       </c>
       <c r="G36" t="n">
-        <v>7516900</v>
+        <v>11211074</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>AA</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45281</v>
-      </c>
-      <c r="B37" t="n">
-        <v>31.25</v>
-      </c>
-      <c r="C37" t="n">
-        <v>32.13999938964844</v>
-      </c>
-      <c r="D37" t="n">
-        <v>30.59000015258789</v>
-      </c>
-      <c r="E37" t="n">
-        <v>32.02000045776367</v>
-      </c>
-      <c r="F37" t="n">
-        <v>32.02000045776367</v>
-      </c>
-      <c r="G37" t="n">
-        <v>5566100</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45282</v>
-      </c>
-      <c r="B38" t="n">
-        <v>32.95999908447266</v>
-      </c>
-      <c r="C38" t="n">
-        <v>34.43999862670898</v>
-      </c>
-      <c r="D38" t="n">
-        <v>32.88000106811523</v>
-      </c>
-      <c r="E38" t="n">
-        <v>33.77000045776367</v>
-      </c>
-      <c r="F38" t="n">
-        <v>33.77000045776367</v>
-      </c>
-      <c r="G38" t="n">
-        <v>9064600</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45286</v>
-      </c>
-      <c r="B39" t="n">
-        <v>33.86000061035156</v>
-      </c>
-      <c r="C39" t="n">
-        <v>34.11999893188477</v>
-      </c>
-      <c r="D39" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="E39" t="n">
-        <v>33.86999893188477</v>
-      </c>
-      <c r="F39" t="n">
-        <v>33.86999893188477</v>
-      </c>
-      <c r="G39" t="n">
-        <v>4505900</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45287</v>
-      </c>
-      <c r="B40" t="n">
-        <v>34.22999954223633</v>
-      </c>
-      <c r="C40" t="n">
-        <v>35.03499984741211</v>
-      </c>
-      <c r="D40" t="n">
-        <v>33.75</v>
-      </c>
-      <c r="E40" t="n">
-        <v>34.81000137329102</v>
-      </c>
-      <c r="F40" t="n">
-        <v>34.81000137329102</v>
-      </c>
-      <c r="G40" t="n">
-        <v>5798100</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45288</v>
-      </c>
-      <c r="B41" t="n">
-        <v>34.68000030517578</v>
-      </c>
-      <c r="C41" t="n">
-        <v>34.8120002746582</v>
-      </c>
-      <c r="D41" t="n">
-        <v>34.19800186157227</v>
-      </c>
-      <c r="E41" t="n">
-        <v>34.54999923706055</v>
-      </c>
-      <c r="F41" t="n">
-        <v>34.54999923706055</v>
-      </c>
-      <c r="G41" t="n">
-        <v>3909900</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>AA</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45289</v>
-      </c>
-      <c r="B42" t="n">
-        <v>34.31000137329102</v>
-      </c>
-      <c r="C42" t="n">
-        <v>34.7400016784668</v>
-      </c>
-      <c r="D42" t="n">
-        <v>33.93000030517578</v>
-      </c>
-      <c r="E42" t="n">
-        <v>34</v>
-      </c>
-      <c r="F42" t="n">
-        <v>34</v>
-      </c>
-      <c r="G42" t="n">
-        <v>3294300</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>AA</t>
+          <t>TATAMOTORS.NS</t>
         </is>
       </c>
     </row>
